--- a/data/trans_orig/DC_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDF04DC4-256A-48B7-A528-D5751EA5E691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD792E23-AEE4-4DA4-BE25-D882A3BBEE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{146FD654-B04B-4DBA-B63B-F8CD0EF0E84E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1428A6B2-0F2C-4669-815A-3DF285BE364D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población con dolor crónico (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>15,21%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>23,99%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>84,79%</t>
   </si>
   <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>76,01%</t>
   </si>
   <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>20,05%</t>
   </si>
   <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>79,95%</t>
   </si>
   <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
   </si>
   <si>
     <t>61,76%</t>
   </si>
   <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
   </si>
   <si>
     <t>70,55%</t>
   </si>
   <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>27,01%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>42,32%</t>
   </si>
   <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
   </si>
   <si>
     <t>72,99%</t>
   </si>
   <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
   </si>
   <si>
     <t>57,68%</t>
   </si>
   <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
   </si>
   <si>
     <t>64,77%</t>
   </si>
   <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>19,6%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
   </si>
   <si>
     <t>80,4%</t>
   </si>
   <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
   </si>
   <si>
     <t>69,69%</t>
   </si>
   <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>19,29%</t>
   </si>
   <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>66,41%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>33,61%</t>
   </si>
   <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
   </si>
   <si>
     <t>46,47%</t>
   </si>
   <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
   </si>
   <si>
     <t>40,02%</t>
   </si>
   <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
   </si>
   <si>
     <t>66,39%</t>
   </si>
   <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
   </si>
   <si>
     <t>53,53%</t>
   </si>
   <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
   </si>
   <si>
     <t>59,98%</t>
   </si>
   <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,148 +422,154 @@
     <t>32,49%</t>
   </si>
   <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
   </si>
   <si>
     <t>63,32%</t>
   </si>
   <si>
-    <t>56,27%</t>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
   </si>
   <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>57,93%</t>
   </si>
   <si>
-    <t>52,23%</t>
+    <t>52,03%</t>
   </si>
   <si>
     <t>60,27%</t>
@@ -572,10 +578,10 @@
     <t>66,75%</t>
   </si>
   <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79CE413-E40D-4E08-B0D1-120F931211CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07E4251-C21F-4086-944F-DDBA2DFA077D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2354,13 +2360,13 @@
         <v>787190</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>2325</v>
@@ -2369,28 +2375,28 @@
         <v>1613620</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>3222</v>
       </c>
       <c r="N28" s="7">
-        <v>2400810</v>
+        <v>2400809</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2411,13 @@
         <v>2598038</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>3042</v>
@@ -2420,13 +2426,13 @@
         <v>2221961</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5521</v>
@@ -2435,13 +2441,13 @@
         <v>4819999</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2489,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DC_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD792E23-AEE4-4DA4-BE25-D882A3BBEE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9DD3661-9EDA-4229-B7A8-AC382A0C0874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1428A6B2-0F2C-4669-815A-3DF285BE364D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D6D5E25-997D-4104-BA21-B84FF0578390}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07E4251-C21F-4086-944F-DDBA2DFA077D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06E044D-B1EE-49B9-951C-046CA2E28F95}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/DC_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9DD3661-9EDA-4229-B7A8-AC382A0C0874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C72385-890C-4538-A3B4-B3257CF0054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D6D5E25-997D-4104-BA21-B84FF0578390}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46BA4E96-8664-484F-872A-7EA1FA59FA30}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población con dolor crónico (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>15,21%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
   </si>
   <si>
     <t>23,99%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>84,79%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>76,01%</t>
   </si>
   <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>20,05%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
   </si>
   <si>
     <t>38,24%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
   </si>
   <si>
     <t>29,45%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
   </si>
   <si>
     <t>79,95%</t>
   </si>
   <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
   </si>
   <si>
     <t>61,76%</t>
   </si>
   <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
   </si>
   <si>
     <t>70,55%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>27,01%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
   </si>
   <si>
     <t>42,32%</t>
   </si>
   <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
   </si>
   <si>
     <t>72,99%</t>
   </si>
   <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
   </si>
   <si>
     <t>57,68%</t>
   </si>
   <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
   </si>
   <si>
     <t>64,77%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>19,6%</t>
   </si>
   <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
   <si>
     <t>80,4%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
   </si>
   <si>
     <t>69,69%</t>
   </si>
   <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>19,29%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
   </si>
   <si>
     <t>27,42%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>66,41%</t>
   </si>
   <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>33,61%</t>
   </si>
   <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
   <si>
     <t>46,47%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
   </si>
   <si>
     <t>40,02%</t>
   </si>
   <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
   </si>
   <si>
     <t>66,39%</t>
   </si>
   <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
   </si>
   <si>
     <t>53,53%</t>
   </si>
   <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
   </si>
   <si>
     <t>59,98%</t>
   </si>
   <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +422,55 @@
     <t>32,49%</t>
   </si>
   <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
   </si>
   <si>
     <t>63,32%</t>
   </si>
   <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
   </si>
   <si>
     <t>49,8%</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
   </si>
   <si>
     <t>67,51%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
   </si>
   <si>
     <t>36,68%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
   </si>
   <si>
     <t>50,2%</t>
   </si>
   <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,109 +479,103 @@
     <t>18,41%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>33,35%</t>
   </si>
   <si>
-    <t>30,41%</t>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
   </si>
   <si>
     <t>36,64%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
   </si>
   <si>
     <t>63,36%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
+    <t>68,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06E044D-B1EE-49B9-951C-046CA2E28F95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C9C563-A8F4-4BD3-8834-99C698FF4CB6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2360,13 +2354,13 @@
         <v>787190</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>2325</v>
@@ -2375,28 +2369,28 @@
         <v>1613620</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>3222</v>
       </c>
       <c r="N28" s="7">
-        <v>2400809</v>
+        <v>2400810</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2405,13 @@
         <v>2598038</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>3042</v>
@@ -2426,13 +2420,13 @@
         <v>2221961</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5521</v>
@@ -2441,13 +2435,13 @@
         <v>4819999</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,7 +2483,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/DC_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C72385-890C-4538-A3B4-B3257CF0054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25C59FD4-6ED7-47AC-A753-73DA85E9910E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46BA4E96-8664-484F-872A-7EA1FA59FA30}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{965FFA2F-5F84-40FA-A482-1D5426C3E18F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="175">
   <si>
     <t>Población con dolor crónico (incluye Otro dolor crónico) en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,511 +71,493 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>Granada</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>84,79%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>80,66%</t>
   </si>
   <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
   </si>
   <si>
     <t>41,33%</t>
   </si>
   <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
   </si>
   <si>
     <t>58,67%</t>
   </si>
   <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C9C563-A8F4-4BD3-8834-99C698FF4CB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A51BE39-5166-49DB-80C2-237AB37AC05F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1093,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="7">
-        <v>39583</v>
+        <v>44934</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1126,7 +1108,7 @@
         <v>137</v>
       </c>
       <c r="I4" s="7">
-        <v>65105</v>
+        <v>67943</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1123,7 @@
         <v>192</v>
       </c>
       <c r="N4" s="7">
-        <v>104688</v>
+        <v>112876</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1144,7 @@
         <v>276</v>
       </c>
       <c r="D5" s="7">
-        <v>220715</v>
+        <v>266509</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,7 +1159,7 @@
         <v>401</v>
       </c>
       <c r="I5" s="7">
-        <v>206298</v>
+        <v>221692</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1192,7 +1174,7 @@
         <v>677</v>
       </c>
       <c r="N5" s="7">
-        <v>427012</v>
+        <v>488201</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1213,7 +1195,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1228,7 +1210,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1243,7 +1225,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1266,7 +1248,7 @@
         <v>84</v>
       </c>
       <c r="D7" s="7">
-        <v>104144</v>
+        <v>101805</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1281,7 +1263,7 @@
         <v>283</v>
       </c>
       <c r="I7" s="7">
-        <v>212056</v>
+        <v>196903</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1296,7 +1278,7 @@
         <v>367</v>
       </c>
       <c r="N7" s="7">
-        <v>316200</v>
+        <v>298708</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1317,7 +1299,7 @@
         <v>298</v>
       </c>
       <c r="D8" s="7">
-        <v>415153</v>
+        <v>416585</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1332,7 +1314,7 @@
         <v>434</v>
       </c>
       <c r="I8" s="7">
-        <v>342510</v>
+        <v>318066</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1347,7 +1329,7 @@
         <v>732</v>
       </c>
       <c r="N8" s="7">
-        <v>757664</v>
+        <v>734651</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1368,7 +1350,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1365,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1398,7 +1380,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1421,7 +1403,7 @@
         <v>113</v>
       </c>
       <c r="D10" s="7">
-        <v>87042</v>
+        <v>83356</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1436,7 +1418,7 @@
         <v>252</v>
       </c>
       <c r="I10" s="7">
-        <v>157986</v>
+        <v>147084</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1451,7 +1433,7 @@
         <v>365</v>
       </c>
       <c r="N10" s="7">
-        <v>245027</v>
+        <v>230440</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1460,7 +1442,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1472,46 +1454,46 @@
         <v>247</v>
       </c>
       <c r="D11" s="7">
-        <v>235198</v>
+        <v>232694</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>284</v>
       </c>
       <c r="I11" s="7">
-        <v>215298</v>
+        <v>202044</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>531</v>
       </c>
       <c r="N11" s="7">
-        <v>450497</v>
+        <v>434738</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1523,7 +1505,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1538,7 +1520,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1553,7 +1535,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1567,7 +1549,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1576,46 +1558,46 @@
         <v>67</v>
       </c>
       <c r="D13" s="7">
-        <v>63156</v>
+        <v>60441</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>256</v>
       </c>
       <c r="I13" s="7">
-        <v>164386</v>
+        <v>207689</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>323</v>
       </c>
       <c r="N13" s="7">
-        <v>227542</v>
+        <v>268129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,46 +1609,46 @@
         <v>225</v>
       </c>
       <c r="D14" s="7">
-        <v>259084</v>
+        <v>252116</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
       </c>
       <c r="I14" s="7">
-        <v>264170</v>
+        <v>268029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>568</v>
       </c>
       <c r="N14" s="7">
-        <v>523254</v>
+        <v>520145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,7 +1660,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1693,7 +1675,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1708,7 +1690,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1722,7 +1704,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1731,46 +1713,46 @@
         <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>37946</v>
+        <v>34499</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>190</v>
       </c>
       <c r="I16" s="7">
-        <v>87180</v>
+        <v>79242</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>248</v>
       </c>
       <c r="N16" s="7">
-        <v>125126</v>
+        <v>113741</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1782,46 +1764,46 @@
         <v>221</v>
       </c>
       <c r="D17" s="7">
-        <v>158802</v>
+        <v>144243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>305</v>
       </c>
       <c r="I17" s="7">
-        <v>172333</v>
+        <v>179537</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>526</v>
       </c>
       <c r="N17" s="7">
-        <v>331134</v>
+        <v>323780</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1833,7 +1815,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1848,7 +1830,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1863,7 +1845,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1877,7 +1859,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1886,46 +1868,46 @@
         <v>141</v>
       </c>
       <c r="D19" s="7">
-        <v>93187</v>
+        <v>89588</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>243</v>
       </c>
       <c r="I19" s="7">
-        <v>128075</v>
+        <v>119239</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>384</v>
       </c>
       <c r="N19" s="7">
-        <v>221262</v>
+        <v>208827</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1937,46 +1919,46 @@
         <v>230</v>
       </c>
       <c r="D20" s="7">
-        <v>184036</v>
+        <v>180048</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>217</v>
       </c>
       <c r="I20" s="7">
-        <v>147547</v>
+        <v>137817</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>447</v>
       </c>
       <c r="N20" s="7">
-        <v>331583</v>
+        <v>317865</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,7 +1970,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2003,7 +1985,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2018,7 +2000,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2032,7 +2014,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2041,46 +2023,46 @@
         <v>205</v>
       </c>
       <c r="D22" s="7">
-        <v>203935</v>
+        <v>198462</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>565</v>
       </c>
       <c r="I22" s="7">
-        <v>509227</v>
+        <v>573965</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>770</v>
       </c>
       <c r="N22" s="7">
-        <v>713162</v>
+        <v>772427</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,46 +2074,46 @@
         <v>394</v>
       </c>
       <c r="D23" s="7">
-        <v>423819</v>
+        <v>425817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>395</v>
       </c>
       <c r="I23" s="7">
-        <v>294976</v>
+        <v>275300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>789</v>
       </c>
       <c r="N23" s="7">
-        <v>718795</v>
+        <v>701117</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,7 +2125,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2158,7 +2140,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2173,7 +2155,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2187,7 +2169,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2196,46 +2178,46 @@
         <v>174</v>
       </c>
       <c r="D25" s="7">
-        <v>158197</v>
+        <v>134512</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>399</v>
       </c>
       <c r="I25" s="7">
-        <v>289606</v>
+        <v>241686</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>573</v>
       </c>
       <c r="N25" s="7">
-        <v>447802</v>
+        <v>376198</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,46 +2229,46 @@
         <v>588</v>
       </c>
       <c r="D26" s="7">
-        <v>701231</v>
+        <v>794208</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>663</v>
       </c>
       <c r="I26" s="7">
-        <v>578828</v>
+        <v>476045</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1251</v>
       </c>
       <c r="N26" s="7">
-        <v>1280060</v>
+        <v>1270254</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2280,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2313,7 +2295,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2328,7 +2310,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2351,46 +2333,46 @@
         <v>897</v>
       </c>
       <c r="D28" s="7">
-        <v>787190</v>
+        <v>747597</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>2325</v>
       </c>
       <c r="I28" s="7">
-        <v>1613620</v>
+        <v>1633750</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>3222</v>
       </c>
       <c r="N28" s="7">
-        <v>2400810</v>
+        <v>2381347</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,46 +2384,46 @@
         <v>2479</v>
       </c>
       <c r="D29" s="7">
-        <v>2598038</v>
+        <v>2712220</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>3042</v>
       </c>
       <c r="I29" s="7">
-        <v>2221961</v>
+        <v>2078530</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>5521</v>
       </c>
       <c r="N29" s="7">
-        <v>4819999</v>
+        <v>4790750</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,7 +2435,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2468,7 +2450,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2465,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2479,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
